--- a/question_corpus_thesis.xlsx
+++ b/question_corpus_thesis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bram/Documents/UU/Thesis/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schei008\Documents\github\Masterthesisgeo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B7C60A-0E50-8E49-A197-901047AEB17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DE29B1-8892-4618-B549-66A0313A8138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15440" xr2:uid="{B69091EE-9E81-5B48-88B5-B664D5B80285}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{B69091EE-9E81-5B48-88B5-B664D5B80285}"/>
   </bookViews>
   <sheets>
     <sheet name="Corpus" sheetId="1" r:id="rId1"/>
@@ -3010,13 +3010,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8BAD33-D361-D841-B4A7-E4A604D9BD8F}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>556</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="258" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="258" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="3" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3606,7 +3607,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>186</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="3" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>207</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="3" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>217</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>228</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>238</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>247</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>257</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>275</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="3" customFormat="1" ht="137" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>281</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>299</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>308</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>318</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>329</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>336</v>
       </c>
@@ -4656,7 +4657,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>344</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>354</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>363</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>370</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>379</v>
       </c>
@@ -4891,7 +4892,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>388</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>397</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>405</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>414</v>
       </c>
@@ -5073,7 +5074,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>420</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>426</v>
       </c>
@@ -5170,7 +5171,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="3" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>436</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>445</v>
       </c>
@@ -5261,7 +5262,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>455</v>
       </c>
@@ -5305,7 +5306,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>465</v>
       </c>
@@ -5352,7 +5353,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>476</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>483</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>489</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>497</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>503</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>509</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>516</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>525</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>535</v>
       </c>
@@ -5751,7 +5752,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>543</v>
       </c>
@@ -5823,9 +5824,9 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>556</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>465</v>
       </c>
@@ -5841,7 +5842,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>336</v>
       </c>
@@ -5849,7 +5850,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -5857,7 +5858,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>379</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>299</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>228</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -5897,7 +5898,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -5905,7 +5906,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -5921,7 +5922,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>535</v>
       </c>
@@ -5929,7 +5930,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>318</v>
       </c>
@@ -5953,7 +5954,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>509</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>186</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -5977,7 +5978,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -5985,7 +5986,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>354</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>363</v>
       </c>
